--- a/assets/msleep.xlsx
+++ b/assets/msleep.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="198">
   <si>
     <t>name</t>
   </si>
@@ -939,7 +939,7 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,6 +992,12 @@
       <c r="D2" t="s">
         <v>197</v>
       </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
